--- a/biology/Médecine/Edmond_Simeoni/Edmond_Simeoni.xlsx
+++ b/biology/Médecine/Edmond_Simeoni/Edmond_Simeoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmond Simeoni est un  homme politique français, né le 6 août 1934 à Corte en Corse et mort le 14 décembre 2018 à Ajaccio[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Simeoni est un  homme politique français, né le 6 août 1934 à Corte en Corse et mort le 14 décembre 2018 à Ajaccio.
 Il est souvent considéré comme le père du nationalisme corse moderne.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Ferdinand Simeoni, maire de Lozzi, Edmond Simeoni passe son enfance dans le centre de l'île, à Francardu (commune d’Omessa). Il fait ses études secondaires au lycée de Bastia. 
 Médecin il se spécialise en gastro-entérologie et s'installe à Bastia en 1965.
@@ -524,9 +538,9 @@
 Aux élections territoriales de 2004, il est tête de liste « Unione Naziunale », qui obtient 17,34 % des suffrages et huit sièges.
 La même année, il crée l'association « Corsica Diaspora et Amis de la Corse ».
 Trois ans plus tard en 2007, avec la Maison de la Corse, il participe activement au bicentenaire de la mort de Pasquale Paoli. Il est aussi reçu à Paris par le Grand Orient de France (GODF) pour un débat sur l'avenir de la Corse.
-Edmond Simeoni est le président du comité de soutien à Yvan Colonna[2].
-En 2009, il anime avec l'Institut Régional du Cinéma et de l'Audiovisuel (IRCA) le centenaire Danielle Casanova et crée, toujours avec l'IRCA, la Journée mondiale de la Corse, en 2010. Cette même année; il assure la coordination avec le cinéaste Magà Ettori du Forum citoyen mondial sous l'égide de l'Unesco[3]
-En juin 2011, dans le cadre des Journées internationales de Corte, Edmond Simeoni prononce à la tribune de Corsica Libera un discours intitulé « Solution politique et alternative nationaliste », renouant ainsi l'alliance politique avec l'aile radicale du nationalisme corse[4]. Des relations, savamment entretenues pendant quatre ans, ont permis à Gilles Simeoni d'être élu en 2015 président du Conseil exécutif de l'assemblée de Corse, grâce à la fusion de sa liste avec celle du nationaliste Jean-Guy Talamoni : ce dernier est élu président de l'assemblée de Corse. À cette occasion, Edmond Simeoni tient un discours enflammé en langue corse, debout sur un véhicule, au milieu de plusieurs centaines de militants, retraçant le parcours du nationalisme depuis cinquante ans, les dérives des clans et de l'État[5].
+Edmond Simeoni est le président du comité de soutien à Yvan Colonna.
+En 2009, il anime avec l'Institut Régional du Cinéma et de l'Audiovisuel (IRCA) le centenaire Danielle Casanova et crée, toujours avec l'IRCA, la Journée mondiale de la Corse, en 2010. Cette même année; il assure la coordination avec le cinéaste Magà Ettori du Forum citoyen mondial sous l'égide de l'Unesco
+En juin 2011, dans le cadre des Journées internationales de Corte, Edmond Simeoni prononce à la tribune de Corsica Libera un discours intitulé « Solution politique et alternative nationaliste », renouant ainsi l'alliance politique avec l'aile radicale du nationalisme corse. Des relations, savamment entretenues pendant quatre ans, ont permis à Gilles Simeoni d'être élu en 2015 président du Conseil exécutif de l'assemblée de Corse, grâce à la fusion de sa liste avec celle du nationaliste Jean-Guy Talamoni : ce dernier est élu président de l'assemblée de Corse. À cette occasion, Edmond Simeoni tient un discours enflammé en langue corse, debout sur un véhicule, au milieu de plusieurs centaines de militants, retraçant le parcours du nationalisme depuis cinquante ans, les dérives des clans et de l'État.
 Edmond Simeoni décède le 14 décembre 2018, ses obsèques sont célébrées le 17 dans son village de Lozzi par l'èvêque d'Ajaccio. Autour du cercueil résonnent les voix polyphoniques de A Filetta, Petru Guelfucci, Jean-Paul Poletti.
 </t>
         </is>
@@ -556,9 +570,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À 20 ans pendant ses études de médecine à Marseille, il rencontre Lucie Billaudelle[6], Corse d'adoption, d'origine juive alsacienne[7] et polonaise[8], qu'il épouse. Ils ont ensuite deux enfants — Marc et Gilles Simeoni.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À 20 ans pendant ses études de médecine à Marseille, il rencontre Lucie Billaudelle, Corse d'adoption, d'origine juive alsacienne et polonaise, qu'il épouse. Ils ont ensuite deux enfants — Marc et Gilles Simeoni.
 Son fils Gilles, président du conseil exécutif de Corse depuis 2015 et maire de Bastia de 2014 à 2016, a été l’un des quatre avocats qui ont défendu Yvan Colonna lors du procès de l'assassinat du préfet Claude Érignac.
 </t>
         </is>
@@ -588,7 +604,9 @@
           <t>Résumé de son parcours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1953 : études de médecine à Marseille (gastro-entérologie)
@@ -609,11 +627,11 @@
 2007 : reçu à Cadet (GODF) pour un débat sur ‘’l'avenir de la Corse'’
 2009 : animation avec l'IRCA  du centenaire de Danielle Casanova
 2010 : création avec l'IRCA de la Journée mondiale de la Corse
-2010 : coordination avec le cinéaste Magà Ettori du Forum citoyen mondial sous l'égide de l'Unesco[9]
-2011 : prise de position pour Yvan Colonna dans le cadre du procès du berger corse[10]
-2011 : milite activement pour Femu a Corsica[11]
-2011 : à l'initiative d'Edmond Simeoni, une alliance politique est conclue en juin 2011 entre Femu a Corsica et Corsica Libera[12]
-2012 : Edmond Simeoni lance un appel pour sauver les arrêtés Miot[13].
+2010 : coordination avec le cinéaste Magà Ettori du Forum citoyen mondial sous l'égide de l'Unesco
+2011 : prise de position pour Yvan Colonna dans le cadre du procès du berger corse
+2011 : milite activement pour Femu a Corsica
+2011 : à l'initiative d'Edmond Simeoni, une alliance politique est conclue en juin 2011 entre Femu a Corsica et Corsica Libera
+2012 : Edmond Simeoni lance un appel pour sauver les arrêtés Miot.
 </t>
         </is>
       </c>
@@ -642,9 +660,11 @@
           <t>Corsica Diaspora</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmond Simeoni est le président fondateur de l'association Corsica Diaspora et Amis de la Corse (Journée mondiale de la Corse et université citoyenne de Corsica Diaspora, forum Citoyen mondial). En mai 2010, dans le cadre du Festival international de la diversité culturelle (UNESCO), Edmond Simeoni et le réalisateur Magà Ettori (président de l'IRCA) animent un colloque qui invite à débattre de la diversité culturelle et des minorités culturelles : « La diversité culturelle dans le 7e art » et « Les minorités culturelles : une lutte complexe et permanente »[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Simeoni est le président fondateur de l'association Corsica Diaspora et Amis de la Corse (Journée mondiale de la Corse et université citoyenne de Corsica Diaspora, forum Citoyen mondial). En mai 2010, dans le cadre du Festival international de la diversité culturelle (UNESCO), Edmond Simeoni et le réalisateur Magà Ettori (président de l'IRCA) animent un colloque qui invite à débattre de la diversité culturelle et des minorités culturelles : « La diversité culturelle dans le 7e art » et « Les minorités culturelles : une lutte complexe et permanente ».
 </t>
         </is>
       </c>
@@ -673,7 +693,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1975 : Le Piège d’Aleria, édition Lattes
 1985 : La Volonté d’être, éditions Albiana
@@ -706,9 +728,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Prix Coppieters 2018[15]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Coppieters 2018</t>
         </is>
       </c>
     </row>
